--- a/Normative Athlete Data - PCSS & MFQ.xlsx
+++ b/Normative Athlete Data - PCSS & MFQ.xlsx
@@ -1,23 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianrenton/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\思庭\AppData\Local\Programs\Python\Python313\dataverse_files tbi Dec 2024 ML Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F971837-05FB-4946-A5A5-BE22270EC994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="18720" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BT$163</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t xml:space="preserve">Participant ID </t>
   </si>
@@ -244,11 +259,59 @@
   <si>
     <t xml:space="preserve"># of Prior Depressive Episodes </t>
   </si>
+  <si>
+    <t>0-fem</t>
+  </si>
+  <si>
+    <t>1-male</t>
+  </si>
+  <si>
+    <t>males</t>
+  </si>
+  <si>
+    <t>females</t>
+  </si>
+  <si>
+    <t>Participants in sport</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Hockey</t>
+  </si>
+  <si>
+    <t>Rugby</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Lacrosse</t>
+  </si>
+  <si>
+    <t>Cheerleading</t>
+  </si>
+  <si>
+    <t>Male Avg MFQ</t>
+  </si>
+  <si>
+    <t>Female Avg MFQ</t>
+  </si>
+  <si>
+    <t>M Participants</t>
+  </si>
+  <si>
+    <t>F Participants</t>
+  </si>
+  <si>
+    <t>Avg Difference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -278,8 +341,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,6 +358,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -556,33 +628,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BT164"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F146" workbookViewId="0">
+      <selection activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.3125" customWidth="1"/>
+    <col min="2" max="2" width="17.6875" customWidth="1"/>
+    <col min="5" max="5" width="18.3125" customWidth="1"/>
+    <col min="6" max="6" width="23.3125" customWidth="1"/>
+    <col min="7" max="7" width="17.1875" customWidth="1"/>
+    <col min="8" max="8" width="19.3125" customWidth="1"/>
+    <col min="9" max="9" width="18.3125" customWidth="1"/>
+    <col min="10" max="10" width="21.8125" customWidth="1"/>
+    <col min="11" max="11" width="24.3125" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
     <col min="13" max="13" width="18.5" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.3125" customWidth="1"/>
+    <col min="17" max="17" width="19.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +872,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>72</v>
       </c>
@@ -1018,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>55</v>
       </c>
@@ -1236,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>82</v>
       </c>
@@ -1454,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>63</v>
       </c>
@@ -1672,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>74</v>
       </c>
@@ -1890,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2108,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>65</v>
       </c>
@@ -2326,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>69</v>
       </c>
@@ -2544,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>84</v>
       </c>
@@ -2762,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>105</v>
       </c>
@@ -2980,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>126</v>
       </c>
@@ -3198,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>67</v>
       </c>
@@ -3416,7 +3488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>85</v>
       </c>
@@ -3634,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>114</v>
       </c>
@@ -3852,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>127</v>
       </c>
@@ -4070,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>135</v>
       </c>
@@ -4288,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>109</v>
       </c>
@@ -4506,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>129</v>
       </c>
@@ -4724,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>132</v>
       </c>
@@ -4942,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5160,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>30</v>
       </c>
@@ -5378,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>36</v>
       </c>
@@ -5596,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>49</v>
       </c>
@@ -5814,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>52</v>
       </c>
@@ -6032,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>58</v>
       </c>
@@ -6250,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>59</v>
       </c>
@@ -6468,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>60</v>
       </c>
@@ -6686,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>61</v>
       </c>
@@ -6904,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>62</v>
       </c>
@@ -7122,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>75</v>
       </c>
@@ -7340,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>79</v>
       </c>
@@ -7558,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>80</v>
       </c>
@@ -7776,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>83</v>
       </c>
@@ -7994,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>113</v>
       </c>
@@ -8212,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>33</v>
       </c>
@@ -8430,7 +8502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>34</v>
       </c>
@@ -8648,7 +8720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8866,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>48</v>
       </c>
@@ -9084,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>51</v>
       </c>
@@ -9302,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>66</v>
       </c>
@@ -9520,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>78</v>
       </c>
@@ -9738,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>81</v>
       </c>
@@ -9956,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>107</v>
       </c>
@@ -10174,7 +10246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>117</v>
       </c>
@@ -10392,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>138</v>
       </c>
@@ -10610,7 +10682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>70</v>
       </c>
@@ -10828,7 +10900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>73</v>
       </c>
@@ -11046,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>76</v>
       </c>
@@ -11264,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>89</v>
       </c>
@@ -11482,7 +11554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>115</v>
       </c>
@@ -11700,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>116</v>
       </c>
@@ -11918,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>119</v>
       </c>
@@ -12136,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>121</v>
       </c>
@@ -12354,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>125</v>
       </c>
@@ -12572,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>130</v>
       </c>
@@ -12790,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>139</v>
       </c>
@@ -13008,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>106</v>
       </c>
@@ -13226,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>108</v>
       </c>
@@ -13444,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>110</v>
       </c>
@@ -13662,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>122</v>
       </c>
@@ -13880,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>128</v>
       </c>
@@ -14098,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>134</v>
       </c>
@@ -14316,7 +14388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>136</v>
       </c>
@@ -14534,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -14752,7 +14824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>123</v>
       </c>
@@ -14970,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>35</v>
       </c>
@@ -15188,7 +15260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>68</v>
       </c>
@@ -15406,7 +15478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>133</v>
       </c>
@@ -15624,7 +15696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>124</v>
       </c>
@@ -15842,7 +15914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>131</v>
       </c>
@@ -16060,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>120</v>
       </c>
@@ -16278,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>111</v>
       </c>
@@ -16496,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>112</v>
       </c>
@@ -16714,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>71</v>
       </c>
@@ -16932,7 +17004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>118</v>
       </c>
@@ -17150,7 +17222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>50</v>
       </c>
@@ -17368,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>137</v>
       </c>
@@ -17586,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>104</v>
       </c>
@@ -17804,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>77</v>
       </c>
@@ -18022,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>97</v>
       </c>
@@ -18240,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>142</v>
       </c>
@@ -18458,7 +18530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>88</v>
       </c>
@@ -18676,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>99</v>
       </c>
@@ -18894,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>103</v>
       </c>
@@ -19112,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>145</v>
       </c>
@@ -19330,7 +19402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>29</v>
       </c>
@@ -19548,7 +19620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>42</v>
       </c>
@@ -19766,7 +19838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>47</v>
       </c>
@@ -19984,7 +20056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>92</v>
       </c>
@@ -20202,7 +20274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>151</v>
       </c>
@@ -20420,7 +20492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>19</v>
       </c>
@@ -20638,7 +20710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>153</v>
       </c>
@@ -20856,7 +20928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>152</v>
       </c>
@@ -21074,7 +21146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>154</v>
       </c>
@@ -21292,7 +21364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>159</v>
       </c>
@@ -21510,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>160</v>
       </c>
@@ -21728,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>21</v>
       </c>
@@ -21946,7 +22018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>25</v>
       </c>
@@ -22164,7 +22236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>94</v>
       </c>
@@ -22382,7 +22454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>3</v>
       </c>
@@ -22600,7 +22672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>40</v>
       </c>
@@ -22818,7 +22890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>53</v>
       </c>
@@ -23036,7 +23108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>54</v>
       </c>
@@ -23254,7 +23326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>86</v>
       </c>
@@ -23472,7 +23544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>90</v>
       </c>
@@ -23690,7 +23762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>91</v>
       </c>
@@ -23908,7 +23980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>96</v>
       </c>
@@ -24126,7 +24198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>98</v>
       </c>
@@ -24344,7 +24416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>101</v>
       </c>
@@ -24562,7 +24634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>102</v>
       </c>
@@ -24780,7 +24852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>16</v>
       </c>
@@ -24998,7 +25070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>17</v>
       </c>
@@ -25216,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>27</v>
       </c>
@@ -25434,7 +25506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>28</v>
       </c>
@@ -25652,7 +25724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>43</v>
       </c>
@@ -25870,7 +25942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>140</v>
       </c>
@@ -26088,7 +26160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>141</v>
       </c>
@@ -26306,7 +26378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>143</v>
       </c>
@@ -26524,7 +26596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>146</v>
       </c>
@@ -26742,7 +26814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>147</v>
       </c>
@@ -26960,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>148</v>
       </c>
@@ -27178,7 +27250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>149</v>
       </c>
@@ -27396,7 +27468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>7</v>
       </c>
@@ -27614,7 +27686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>9</v>
       </c>
@@ -27832,7 +27904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>12</v>
       </c>
@@ -28050,7 +28122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>14</v>
       </c>
@@ -28268,7 +28340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>15</v>
       </c>
@@ -28486,7 +28558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>44</v>
       </c>
@@ -28704,7 +28776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>46</v>
       </c>
@@ -28922,7 +28994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>165</v>
       </c>
@@ -29140,7 +29212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>4</v>
       </c>
@@ -29358,7 +29430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>8</v>
       </c>
@@ -29576,7 +29648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>10</v>
       </c>
@@ -29794,7 +29866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>155</v>
       </c>
@@ -30012,7 +30084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>157</v>
       </c>
@@ -30230,7 +30302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>158</v>
       </c>
@@ -30448,7 +30520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>161</v>
       </c>
@@ -30666,7 +30738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>162</v>
       </c>
@@ -30884,7 +30956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>164</v>
       </c>
@@ -31102,7 +31174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>20</v>
       </c>
@@ -31320,7 +31392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>23</v>
       </c>
@@ -31538,7 +31610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>24</v>
       </c>
@@ -31756,7 +31828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>26</v>
       </c>
@@ -31974,7 +32046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>87</v>
       </c>
@@ -32192,7 +32264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>100</v>
       </c>
@@ -32410,7 +32482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>144</v>
       </c>
@@ -32628,7 +32700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>18</v>
       </c>
@@ -32846,7 +32918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>150</v>
       </c>
@@ -33064,7 +33136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>41</v>
       </c>
@@ -33282,7 +33354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>45</v>
       </c>
@@ -33500,7 +33572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>156</v>
       </c>
@@ -33718,7 +33790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>56</v>
       </c>
@@ -33936,7 +34008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>5</v>
       </c>
@@ -34154,7 +34226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>22</v>
       </c>
@@ -34372,7 +34444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:72" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>163</v>
       </c>
@@ -34590,7 +34662,278 @@
         <v>2</v>
       </c>
     </row>
+    <row r="158" spans="1:72" x14ac:dyDescent="0.5">
+      <c r="F158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:72" x14ac:dyDescent="0.5">
+      <c r="B159" t="s">
+        <v>74</v>
+      </c>
+      <c r="C159">
+        <f>COUNTIF(C1:C156,1)</f>
+        <v>76</v>
+      </c>
+      <c r="D159">
+        <f>SUMIFS($O$2:$O$156,$C$2:$C$156,1)</f>
+        <v>359</v>
+      </c>
+      <c r="E159" t="s">
+        <v>77</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+      <c r="G159" s="1" t="str">
+        <f>E159&amp;" "&amp;F159</f>
+        <v>Soccer 1</v>
+      </c>
+      <c r="H159" s="1">
+        <f>COUNTIFS($D$2:$D$156,F159)</f>
+        <v>25</v>
+      </c>
+      <c r="I159" s="1">
+        <f>COUNTIFS($D$2:$D$156,F159,$C$2:$C$156,1)</f>
+        <v>12</v>
+      </c>
+      <c r="J159" s="1">
+        <f>COUNTIFS($D$2:$D$156,F159,$C$2:$C$156,0)</f>
+        <v>13</v>
+      </c>
+      <c r="K159" s="2">
+        <f>AVERAGEIFS($P$2:$P$156,$C$2:$C$156,1,$D$2:$D$156,F159)</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="L159" s="2">
+        <f>AVERAGEIFS($P$2:$P$156,$C$2:$C$156,0,$D$2:$D$156,F159)</f>
+        <v>5.5384615384615383</v>
+      </c>
+      <c r="M159" s="2">
+        <f>K159-L159</f>
+        <v>0.29487179487179471</v>
+      </c>
+    </row>
+    <row r="160" spans="1:72" x14ac:dyDescent="0.5">
+      <c r="B160" t="s">
+        <v>75</v>
+      </c>
+      <c r="C160">
+        <f>155-C159</f>
+        <v>79</v>
+      </c>
+      <c r="D160">
+        <f>SUMIFS($O$2:$O$156,$C$2:$C$156,0)</f>
+        <v>1213</v>
+      </c>
+      <c r="E160" t="s">
+        <v>78</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2</v>
+      </c>
+      <c r="G160" s="1" t="str">
+        <f t="shared" ref="G160:G164" si="0">E160&amp;" "&amp;F160</f>
+        <v>Hockey 2</v>
+      </c>
+      <c r="H160" s="1">
+        <f>COUNTIFS($D$2:$D$156,F160)</f>
+        <v>70</v>
+      </c>
+      <c r="I160" s="1">
+        <f>COUNTIFS($D$2:$D$156,F160,$C$2:$C$156,1)</f>
+        <v>39</v>
+      </c>
+      <c r="J160" s="1">
+        <f>COUNTIFS($D$2:$D$156,F160,$C$2:$C$156,0)</f>
+        <v>31</v>
+      </c>
+      <c r="K160" s="2">
+        <f>AVERAGEIFS($P$2:$P$156,$C$2:$C$156,1,$D$2:$D$156,F160)</f>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="L160" s="2">
+        <f>AVERAGEIFS($P$2:$P$156,$C$2:$C$156,0,$D$2:$D$156,F160)</f>
+        <v>6.774193548387097</v>
+      </c>
+      <c r="M160" s="2">
+        <f t="shared" ref="M160:M164" si="1">K160-L160</f>
+        <v>-3.6972704714640199</v>
+      </c>
+    </row>
+    <row r="161" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="C161" t="s">
+        <v>72</v>
+      </c>
+      <c r="D161">
+        <f>D160/D159</f>
+        <v>3.3788300835654597</v>
+      </c>
+      <c r="E161" t="s">
+        <v>79</v>
+      </c>
+      <c r="F161" s="1">
+        <v>3</v>
+      </c>
+      <c r="G161" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Rugby 3</v>
+      </c>
+      <c r="H161" s="1">
+        <f>COUNTIFS($D$2:$D$156,F161)</f>
+        <v>18</v>
+      </c>
+      <c r="I161" s="1">
+        <f>COUNTIFS($D$2:$D$156,F161,$C$2:$C$156,1)</f>
+        <v>2</v>
+      </c>
+      <c r="J161" s="1">
+        <f>COUNTIFS($D$2:$D$156,F161,$C$2:$C$156,0)</f>
+        <v>16</v>
+      </c>
+      <c r="K161" s="2">
+        <f>AVERAGEIFS($P$2:$P$156,$C$2:$C$156,1,$D$2:$D$156,F161)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L161" s="2">
+        <f>AVERAGEIFS($P$2:$P$156,$C$2:$C$156,0,$D$2:$D$156,F161)</f>
+        <v>17.625</v>
+      </c>
+      <c r="M161" s="2">
+        <f t="shared" si="1"/>
+        <v>-13.125</v>
+      </c>
+    </row>
+    <row r="162" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="C162" t="s">
+        <v>73</v>
+      </c>
+      <c r="E162" t="s">
+        <v>80</v>
+      </c>
+      <c r="F162" s="1">
+        <v>4</v>
+      </c>
+      <c r="G162" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Football 4</v>
+      </c>
+      <c r="H162" s="1">
+        <f>COUNTIFS($D$2:$D$156,F162)</f>
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <f>COUNTIFS($D$2:$D$156,F162,$C$2:$C$156,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J162" s="1">
+        <f>COUNTIFS($D$2:$D$156,F162,$C$2:$C$156,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K162" s="2">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2">
+        <v>0</v>
+      </c>
+      <c r="M162" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="E163" t="s">
+        <v>81</v>
+      </c>
+      <c r="F163" s="1">
+        <v>5</v>
+      </c>
+      <c r="G163" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Lacrosse 5</v>
+      </c>
+      <c r="H163" s="1">
+        <f>COUNTIFS($D$2:$D$156,F163)</f>
+        <v>23</v>
+      </c>
+      <c r="I163" s="1">
+        <f>COUNTIFS($D$2:$D$156,F163,$C$2:$C$156,1)</f>
+        <v>23</v>
+      </c>
+      <c r="J163" s="1">
+        <f>COUNTIFS($D$2:$D$156,F163,$C$2:$C$156,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K163" s="2">
+        <f>AVERAGEIFS($P$2:$P$156,$C$2:$C$156,1,$D$2:$D$156,F163)</f>
+        <v>3.0869565217391304</v>
+      </c>
+      <c r="L163" s="2">
+        <v>0</v>
+      </c>
+      <c r="M163" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0869565217391304</v>
+      </c>
+    </row>
+    <row r="164" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="E164" t="s">
+        <v>82</v>
+      </c>
+      <c r="F164" s="1">
+        <v>6</v>
+      </c>
+      <c r="G164" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Cheerleading 6</v>
+      </c>
+      <c r="H164" s="1">
+        <f>COUNTIFS($D$2:$D$156,F164)</f>
+        <v>19</v>
+      </c>
+      <c r="I164" s="1">
+        <f>COUNTIFS($D$2:$D$156,F164,$C$2:$C$156,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J164" s="1">
+        <f>COUNTIFS($D$2:$D$156,F164,$C$2:$C$156,0)</f>
+        <v>19</v>
+      </c>
+      <c r="K164" s="2">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2">
+        <f>AVERAGEIFS($P$2:$P$156,$C$2:$C$156,0,$D$2:$D$156,F164)</f>
+        <v>19.631578947368421</v>
+      </c>
+      <c r="M164" s="2">
+        <f t="shared" si="1"/>
+        <v>-19.631578947368421</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:BT163" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Normative Athlete Data - PCSS & MFQ.xlsx
+++ b/Normative Athlete Data - PCSS & MFQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\思庭\AppData\Local\Programs\Python\Python313\dataverse_files tbi Dec 2024 ML Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F971837-05FB-4946-A5A5-BE22270EC994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B130098-8686-4E69-8676-DFB56BE530E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t xml:space="preserve">Participant ID </t>
   </si>
@@ -307,11 +307,20 @@
   <si>
     <t>Avg Difference</t>
   </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Avg MFQ Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -341,12 +350,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -629,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT164"/>
+  <dimension ref="A1:BT172"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F146" workbookViewId="0">
-      <selection activeCell="I168" sqref="I168"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -34711,15 +34723,15 @@
         <v>Soccer 1</v>
       </c>
       <c r="H159" s="1">
-        <f>COUNTIFS($D$2:$D$156,F159)</f>
+        <f t="shared" ref="H159:H164" si="0">COUNTIFS($D$2:$D$156,F159)</f>
         <v>25</v>
       </c>
       <c r="I159" s="1">
-        <f>COUNTIFS($D$2:$D$156,F159,$C$2:$C$156,1)</f>
+        <f t="shared" ref="I159:I164" si="1">COUNTIFS($D$2:$D$156,F159,$C$2:$C$156,1)</f>
         <v>12</v>
       </c>
       <c r="J159" s="1">
-        <f>COUNTIFS($D$2:$D$156,F159,$C$2:$C$156,0)</f>
+        <f t="shared" ref="J159:J164" si="2">COUNTIFS($D$2:$D$156,F159,$C$2:$C$156,0)</f>
         <v>13</v>
       </c>
       <c r="K159" s="2">
@@ -34754,19 +34766,19 @@
         <v>2</v>
       </c>
       <c r="G160" s="1" t="str">
-        <f t="shared" ref="G160:G164" si="0">E160&amp;" "&amp;F160</f>
+        <f t="shared" ref="G160:G164" si="3">E160&amp;" "&amp;F160</f>
         <v>Hockey 2</v>
       </c>
       <c r="H160" s="1">
-        <f>COUNTIFS($D$2:$D$156,F160)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I160" s="1">
-        <f>COUNTIFS($D$2:$D$156,F160,$C$2:$C$156,1)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="J160" s="1">
-        <f>COUNTIFS($D$2:$D$156,F160,$C$2:$C$156,0)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="K160" s="2">
@@ -34778,7 +34790,7 @@
         <v>6.774193548387097</v>
       </c>
       <c r="M160" s="2">
-        <f t="shared" ref="M160:M164" si="1">K160-L160</f>
+        <f t="shared" ref="M160:M164" si="4">K160-L160</f>
         <v>-3.6972704714640199</v>
       </c>
     </row>
@@ -34797,19 +34809,19 @@
         <v>3</v>
       </c>
       <c r="G161" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Rugby 3</v>
+      </c>
+      <c r="H161" s="1">
         <f t="shared" si="0"/>
-        <v>Rugby 3</v>
-      </c>
-      <c r="H161" s="1">
-        <f>COUNTIFS($D$2:$D$156,F161)</f>
         <v>18</v>
       </c>
       <c r="I161" s="1">
-        <f>COUNTIFS($D$2:$D$156,F161,$C$2:$C$156,1)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J161" s="1">
-        <f>COUNTIFS($D$2:$D$156,F161,$C$2:$C$156,0)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K161" s="2">
@@ -34821,7 +34833,7 @@
         <v>17.625</v>
       </c>
       <c r="M161" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-13.125</v>
       </c>
     </row>
@@ -34836,19 +34848,19 @@
         <v>4</v>
       </c>
       <c r="G162" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Football 4</v>
+      </c>
+      <c r="H162" s="1">
         <f t="shared" si="0"/>
-        <v>Football 4</v>
-      </c>
-      <c r="H162" s="1">
-        <f>COUNTIFS($D$2:$D$156,F162)</f>
         <v>0</v>
       </c>
       <c r="I162" s="1">
-        <f>COUNTIFS($D$2:$D$156,F162,$C$2:$C$156,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J162" s="1">
-        <f>COUNTIFS($D$2:$D$156,F162,$C$2:$C$156,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K162" s="2">
@@ -34858,7 +34870,7 @@
         <v>0</v>
       </c>
       <c r="M162" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -34870,19 +34882,19 @@
         <v>5</v>
       </c>
       <c r="G163" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Lacrosse 5</v>
+      </c>
+      <c r="H163" s="1">
         <f t="shared" si="0"/>
-        <v>Lacrosse 5</v>
-      </c>
-      <c r="H163" s="1">
-        <f>COUNTIFS($D$2:$D$156,F163)</f>
         <v>23</v>
       </c>
       <c r="I163" s="1">
-        <f>COUNTIFS($D$2:$D$156,F163,$C$2:$C$156,1)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="J163" s="1">
-        <f>COUNTIFS($D$2:$D$156,F163,$C$2:$C$156,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K163" s="2">
@@ -34893,7 +34905,7 @@
         <v>0</v>
       </c>
       <c r="M163" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.0869565217391304</v>
       </c>
     </row>
@@ -34905,19 +34917,19 @@
         <v>6</v>
       </c>
       <c r="G164" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Cheerleading 6</v>
+      </c>
+      <c r="H164" s="1">
         <f t="shared" si="0"/>
-        <v>Cheerleading 6</v>
-      </c>
-      <c r="H164" s="1">
-        <f>COUNTIFS($D$2:$D$156,F164)</f>
         <v>19</v>
       </c>
       <c r="I164" s="1">
-        <f>COUNTIFS($D$2:$D$156,F164,$C$2:$C$156,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J164" s="1">
-        <f>COUNTIFS($D$2:$D$156,F164,$C$2:$C$156,0)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K164" s="2">
@@ -34928,8 +34940,64 @@
         <v>19.631578947368421</v>
       </c>
       <c r="M164" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-19.631578947368421</v>
+      </c>
+    </row>
+    <row r="166" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="D166" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="D167" s="1">
+        <v>13</v>
+      </c>
+      <c r="E167" s="3">
+        <v>4.2926829268292686</v>
+      </c>
+    </row>
+    <row r="168" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="D168" s="1">
+        <v>14</v>
+      </c>
+      <c r="E168" s="3">
+        <v>7.9714285714285715</v>
+      </c>
+    </row>
+    <row r="169" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="D169" s="1">
+        <v>15</v>
+      </c>
+      <c r="E169" s="3">
+        <v>8.875</v>
+      </c>
+    </row>
+    <row r="170" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="D170" s="1">
+        <v>16</v>
+      </c>
+      <c r="E170" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="D171" s="1">
+        <v>17</v>
+      </c>
+      <c r="E171" s="3">
+        <v>7.9230769230769234</v>
+      </c>
+    </row>
+    <row r="172" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="D172" s="1">
+        <v>18</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Normative Athlete Data - PCSS & MFQ.xlsx
+++ b/Normative Athlete Data - PCSS & MFQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\思庭\AppData\Local\Programs\Python\Python313\dataverse_files tbi Dec 2024 ML Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B130098-8686-4E69-8676-DFB56BE530E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9801EC-B32A-4AE1-BC2B-F3AEAB93AB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t xml:space="preserve">Participant ID </t>
   </si>
@@ -313,13 +313,22 @@
   <si>
     <t>Avg MFQ Score</t>
   </si>
+  <si>
+    <t>Manova on the entire dataset</t>
+  </si>
+  <si>
+    <t>between (diff sports) and within(MvF) group test. Mann whiteney for MvF since it's not normally distributed. Kruscal wallace for in between in sports</t>
+  </si>
+  <si>
+    <t>How to bring together what are the differences between groups in the dataset and ranking risk factors. Do risk factors change results even if theyre the same for a man v a woman</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -358,7 +367,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT172"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E157" zoomScale="87" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -34944,6 +34953,10 @@
         <v>-19.631578947368421</v>
       </c>
     </row>
+    <row r="165" spans="3:13" x14ac:dyDescent="0.5">
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+    </row>
     <row r="166" spans="3:13" x14ac:dyDescent="0.5">
       <c r="D166" s="1" t="s">
         <v>88</v>
@@ -34967,6 +34980,9 @@
       <c r="E168" s="3">
         <v>7.9714285714285715</v>
       </c>
+      <c r="G168" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="169" spans="3:13" x14ac:dyDescent="0.5">
       <c r="D169" s="1">
@@ -34975,6 +34991,9 @@
       <c r="E169" s="3">
         <v>8.875</v>
       </c>
+      <c r="G169" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="170" spans="3:13" x14ac:dyDescent="0.5">
       <c r="D170" s="1">
@@ -34982,6 +35001,9 @@
       </c>
       <c r="E170" s="3">
         <v>11</v>
+      </c>
+      <c r="G170" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="3:13" x14ac:dyDescent="0.5">

--- a/Normative Athlete Data - PCSS & MFQ.xlsx
+++ b/Normative Athlete Data - PCSS & MFQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\思庭\AppData\Local\Programs\Python\Python313\dataverse_files tbi Dec 2024 ML Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9801EC-B32A-4AE1-BC2B-F3AEAB93AB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73698712-BD68-4199-A4A2-11287D17D25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BT$163</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t xml:space="preserve">Participant ID </t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>How to bring together what are the differences between groups in the dataset and ranking risk factors. Do risk factors change results even if theyre the same for a man v a woman</t>
+  </si>
+  <si>
+    <t>Plot ROC curve and closer to 1 is ther better model</t>
   </si>
 </sst>
 </file>
@@ -652,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT172"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E157" zoomScale="87" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C147" zoomScale="87" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -35013,6 +35016,9 @@
       <c r="E171" s="3">
         <v>7.9230769230769234</v>
       </c>
+      <c r="G171" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="172" spans="3:13" x14ac:dyDescent="0.5">
       <c r="D172" s="1">
